--- a/rakuten.xlsx
+++ b/rakuten.xlsx
@@ -14,7 +14,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+  <si>
+    <t>轉入頂新</t>
+  </si>
+  <si>
+    <t>單據日期</t>
+  </si>
+  <si>
+    <t>會員編號</t>
+  </si>
+  <si>
+    <t>託運單號</t>
+  </si>
+  <si>
+    <t>訂單號碼</t>
+  </si>
+  <si>
+    <t>訂單日期</t>
+  </si>
+  <si>
+    <t>訂購人</t>
+  </si>
+  <si>
+    <t>收貨人</t>
+  </si>
+  <si>
+    <t>贈送</t>
+  </si>
+  <si>
+    <t>備貨</t>
+  </si>
+  <si>
+    <t>出貨</t>
+  </si>
+  <si>
+    <t>備注</t>
+  </si>
+  <si>
+    <t>聯絡電話</t>
+  </si>
+  <si>
+    <t>收件人聯絡電話</t>
+  </si>
+  <si>
+    <t>送貨地址</t>
+  </si>
+  <si>
+    <t>訂單金額</t>
+  </si>
+  <si>
+    <t>網路金額抵扣</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>買家付款方式</t>
+  </si>
+  <si>
+    <t>網購收款狀態</t>
+  </si>
+  <si>
+    <t>品號</t>
+  </si>
   <si>
     <t xml:space="preserve">2017-02-04 </t>
   </si>
@@ -406,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B4:AE9"/>
+  <dimension ref="A3:AJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -414,178 +477,243 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="1:31">
+    <row r="3" spans="1:36">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="B4" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="AC4" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AD4" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:36">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="AD5" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:36">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="AC6" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="AD6" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="AE6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:36">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AD7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AE7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:36">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AD8" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AE8" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:36">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AD9" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AE9" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/rakuten.xlsx
+++ b/rakuten.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>轉入頂新</t>
   </si>
@@ -38,6 +38,51 @@
   </si>
   <si>
     <t>收貨人</t>
+  </si>
+  <si>
+    <t>卡拉蝦原味</t>
+  </si>
+  <si>
+    <t>卡拉蝦辣味</t>
+  </si>
+  <si>
+    <t>卡拉魷原味</t>
+  </si>
+  <si>
+    <t>卡拉魷辣味</t>
+  </si>
+  <si>
+    <t>卡拉魷芥末</t>
+  </si>
+  <si>
+    <t>卡拉蟹原味</t>
+  </si>
+  <si>
+    <t>卡拉蟹辣味</t>
+  </si>
+  <si>
+    <t>卡拉龍珠原味</t>
+  </si>
+  <si>
+    <t>卡拉龍珠辣味</t>
+  </si>
+  <si>
+    <t>卡拉龍珠芥末</t>
+  </si>
+  <si>
+    <t>卡拉小卷原味</t>
+  </si>
+  <si>
+    <t>卡拉小卷芥末</t>
+  </si>
+  <si>
+    <t>虱目魚薄燒脆片海苔</t>
+  </si>
+  <si>
+    <t>虱目魚薄燒脆片黑胡椒</t>
+  </si>
+  <si>
+    <t>虱目魚薄燒脆片蒜香</t>
   </si>
   <si>
     <t>贈送</t>
@@ -469,14 +514,54 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:AJ9"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="9"/>
+    <col customWidth="1" max="2" min="2" width="16"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
+    <col customWidth="1" max="4" min="4" width="9"/>
+    <col customWidth="1" max="5" min="5" width="15"/>
+    <col customWidth="1" max="6" min="6" width="16"/>
+    <col customWidth="1" max="7" min="7" width="9"/>
+    <col customWidth="1" max="8" min="8" width="9"/>
+    <col customWidth="1" max="9" min="9" width="10"/>
+    <col customWidth="1" max="10" min="10" width="10"/>
+    <col customWidth="1" max="11" min="11" width="10"/>
+    <col customWidth="1" max="12" min="12" width="10"/>
+    <col customWidth="1" max="13" min="13" width="10"/>
+    <col customWidth="1" max="14" min="14" width="10"/>
+    <col customWidth="1" max="15" min="15" width="10"/>
+    <col customWidth="1" max="16" min="16" width="11"/>
+    <col customWidth="1" max="17" min="17" width="11"/>
+    <col customWidth="1" max="18" min="18" width="11"/>
+    <col customWidth="1" max="19" min="19" width="11"/>
+    <col customWidth="1" max="20" min="20" width="11"/>
+    <col customWidth="1" max="21" min="21" width="14"/>
+    <col customWidth="1" max="22" min="22" width="15"/>
+    <col customWidth="1" max="23" min="23" width="14"/>
+    <col customWidth="1" max="24" min="24" width="7"/>
+    <col customWidth="1" max="25" min="25" width="7"/>
+    <col customWidth="1" max="26" min="26" width="7"/>
+    <col customWidth="1" max="27" min="27" width="7"/>
+    <col customWidth="1" max="28" min="28" width="9"/>
+    <col customWidth="1" max="29" min="29" width="15"/>
+    <col customWidth="1" max="30" min="30" width="15"/>
+    <col customWidth="1" max="31" min="31" width="38"/>
+    <col customWidth="1" max="32" min="32" width="11"/>
+    <col customWidth="1" max="33" min="33" width="7"/>
+    <col customWidth="1" max="34" min="34" width="11"/>
+    <col customWidth="1" max="35" min="35" width="11"/>
+    <col customWidth="1" max="36" min="36" width="7"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:36"/>
+    <row r="2" spans="1:36"/>
     <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>0</v>
@@ -502,218 +587,263 @@
       <c r="H3" t="s">
         <v>7</v>
       </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" t="s">
+        <v>22</v>
+      </c>
       <c r="X3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="Z3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AC3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AD3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AF3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="AG3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AH3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="AI3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:36">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AC4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="AD4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="AE4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:36">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AC5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AE5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:36">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="AC6" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="AD6" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="AE6" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:36">
       <c r="B7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AC7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="AD7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="AE7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:36">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AC8" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="AD8" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="AE8" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:36">
       <c r="B9" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AC9" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="AD9" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="AE9" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/rakuten.xlsx
+++ b/rakuten.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rakuten" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="信用卡" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>轉入頂新</t>
   </si>
@@ -40,49 +40,22 @@
     <t>收貨人</t>
   </si>
   <si>
-    <t>卡拉蝦原味</t>
-  </si>
-  <si>
-    <t>卡拉蝦辣味</t>
-  </si>
-  <si>
-    <t>卡拉魷原味</t>
-  </si>
-  <si>
-    <t>卡拉魷辣味</t>
-  </si>
-  <si>
-    <t>卡拉魷芥末</t>
-  </si>
-  <si>
-    <t>卡拉蟹原味</t>
-  </si>
-  <si>
-    <t>卡拉蟹辣味</t>
-  </si>
-  <si>
-    <t>卡拉龍珠原味</t>
-  </si>
-  <si>
-    <t>卡拉龍珠辣味</t>
-  </si>
-  <si>
-    <t>卡拉龍珠芥末</t>
-  </si>
-  <si>
-    <t>卡拉小卷原味</t>
-  </si>
-  <si>
-    <t>卡拉小卷芥末</t>
-  </si>
-  <si>
-    <t>虱目魚薄燒脆片海苔</t>
-  </si>
-  <si>
-    <t>虱目魚薄燒脆片黑胡椒</t>
-  </si>
-  <si>
-    <t>虱目魚薄燒脆片蒜香</t>
+    <t>卡拉蝦</t>
+  </si>
+  <si>
+    <t>卡拉魷</t>
+  </si>
+  <si>
+    <t>預留</t>
+  </si>
+  <si>
+    <t>卡拉龍珠</t>
+  </si>
+  <si>
+    <t>卡拉小卷</t>
+  </si>
+  <si>
+    <t>虱目魚薄燒脆片</t>
   </si>
   <si>
     <t>贈送</t>
@@ -112,6 +85,9 @@
     <t>網路金額抵扣</t>
   </si>
   <si>
+    <t>Coupon</t>
+  </si>
+  <si>
     <t>合計</t>
   </si>
   <si>
@@ -124,6 +100,24 @@
     <t>品號</t>
   </si>
   <si>
+    <t>原味</t>
+  </si>
+  <si>
+    <t>辣味</t>
+  </si>
+  <si>
+    <t>芥末</t>
+  </si>
+  <si>
+    <t>海苔</t>
+  </si>
+  <si>
+    <t>黑胡椒</t>
+  </si>
+  <si>
+    <t>蒜香</t>
+  </si>
+  <si>
     <t xml:space="preserve">2017-02-04 </t>
   </si>
   <si>
@@ -133,12 +127,30 @@
     <t>1846100314</t>
   </si>
   <si>
+    <t>20170204</t>
+  </si>
+  <si>
     <t>簡 仲廷</t>
   </si>
   <si>
+    <t>2017-02-12</t>
+  </si>
+  <si>
     <t>台灣 新竹市 東區 300 新竹市中華路二段162巷16號6樓之4</t>
   </si>
   <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>已付款</t>
+  </si>
+  <si>
     <t xml:space="preserve">2017-02-02 </t>
   </si>
   <si>
@@ -148,12 +160,27 @@
     <t>1215129882</t>
   </si>
   <si>
+    <t>20170202</t>
+  </si>
+  <si>
     <t>陳 秀榮</t>
   </si>
   <si>
+    <t>2017-02-08</t>
+  </si>
+  <si>
     <t>台灣 台北市 內湖區 114 安康路191號4樓</t>
   </si>
   <si>
+    <t>1680</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>1512</t>
+  </si>
+  <si>
     <t>0933600278</t>
   </si>
   <si>
@@ -163,9 +190,21 @@
     <t>陳 怡雅</t>
   </si>
   <si>
+    <t>2017-02-15</t>
+  </si>
+  <si>
     <t>台灣 台北市 大安區 106 台北市辛亥路二段171巷31號</t>
   </si>
   <si>
+    <t>834</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
     <t xml:space="preserve">2017-01-30 </t>
   </si>
   <si>
@@ -175,10 +214,22 @@
     <t>0453143410</t>
   </si>
   <si>
+    <t>20170130</t>
+  </si>
+  <si>
     <t>姚 麗菁</t>
   </si>
   <si>
+    <t>2017-02-06</t>
+  </si>
+  <si>
     <t>台灣 台北市 中山區 104 松江路313巷22號5樓</t>
+  </si>
+  <si>
+    <t>1497</t>
+  </si>
+  <si>
+    <t>未付款</t>
   </si>
 </sst>
 </file>
@@ -514,7 +565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AQ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,42 +578,48 @@
     <col customWidth="1" max="3" min="3" width="15"/>
     <col customWidth="1" max="4" min="4" width="9"/>
     <col customWidth="1" max="5" min="5" width="15"/>
-    <col customWidth="1" max="6" min="6" width="16"/>
+    <col customWidth="1" max="6" min="6" width="13"/>
     <col customWidth="1" max="7" min="7" width="9"/>
     <col customWidth="1" max="8" min="8" width="9"/>
-    <col customWidth="1" max="9" min="9" width="10"/>
-    <col customWidth="1" max="10" min="10" width="10"/>
-    <col customWidth="1" max="11" min="11" width="10"/>
-    <col customWidth="1" max="12" min="12" width="10"/>
-    <col customWidth="1" max="13" min="13" width="10"/>
-    <col customWidth="1" max="14" min="14" width="10"/>
-    <col customWidth="1" max="15" min="15" width="10"/>
-    <col customWidth="1" max="16" min="16" width="11"/>
-    <col customWidth="1" max="17" min="17" width="11"/>
-    <col customWidth="1" max="18" min="18" width="11"/>
-    <col customWidth="1" max="19" min="19" width="11"/>
-    <col customWidth="1" max="20" min="20" width="11"/>
-    <col customWidth="1" max="21" min="21" width="14"/>
-    <col customWidth="1" max="22" min="22" width="15"/>
-    <col customWidth="1" max="23" min="23" width="14"/>
-    <col customWidth="1" max="24" min="24" width="7"/>
+    <col customWidth="1" max="9" min="9" width="8"/>
+    <col customWidth="1" max="10" min="10" width="7"/>
+    <col customWidth="1" max="11" min="11" width="8"/>
+    <col customWidth="1" max="12" min="12" width="7"/>
+    <col customWidth="1" max="13" min="13" width="7"/>
+    <col customWidth="1" max="14" min="14" width="8"/>
+    <col customWidth="1" max="15" min="15" width="7"/>
+    <col customWidth="1" max="16" min="16" width="7"/>
+    <col customWidth="1" max="17" min="17" width="7"/>
+    <col customWidth="1" max="18" min="18" width="7"/>
+    <col customWidth="1" max="19" min="19" width="7"/>
+    <col customWidth="1" max="20" min="20" width="7"/>
+    <col customWidth="1" max="21" min="21" width="7"/>
+    <col customWidth="1" max="22" min="22" width="9"/>
+    <col customWidth="1" max="23" min="23" width="7"/>
+    <col customWidth="1" max="24" min="24" width="9"/>
     <col customWidth="1" max="25" min="25" width="7"/>
     <col customWidth="1" max="26" min="26" width="7"/>
-    <col customWidth="1" max="27" min="27" width="7"/>
-    <col customWidth="1" max="28" min="28" width="9"/>
-    <col customWidth="1" max="29" min="29" width="15"/>
-    <col customWidth="1" max="30" min="30" width="15"/>
-    <col customWidth="1" max="31" min="31" width="38"/>
-    <col customWidth="1" max="32" min="32" width="11"/>
+    <col customWidth="1" max="27" min="27" width="12"/>
+    <col customWidth="1" max="28" min="28" width="7"/>
+    <col customWidth="1" max="29" min="29" width="7"/>
+    <col customWidth="1" max="31" min="31" width="7"/>
+    <col customWidth="1" max="32" min="32" width="15"/>
     <col customWidth="1" max="33" min="33" width="7"/>
-    <col customWidth="1" max="34" min="34" width="11"/>
-    <col customWidth="1" max="35" min="35" width="11"/>
-    <col customWidth="1" max="36" min="36" width="7"/>
+    <col customWidth="1" max="34" min="34" width="15"/>
+    <col customWidth="1" max="35" min="35" width="15"/>
+    <col customWidth="1" max="36" min="36" width="38"/>
+    <col customWidth="1" max="37" min="37" width="9"/>
+    <col customWidth="1" max="38" min="38" width="11"/>
+    <col customWidth="1" max="39" min="39" width="11"/>
+    <col customWidth="1" max="40" min="40" width="9"/>
+    <col customWidth="1" max="41" min="41" width="11"/>
+    <col customWidth="1" max="42" min="42" width="11"/>
+    <col customWidth="1" max="43" min="43" width="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36"/>
-    <row r="2" spans="1:36"/>
-    <row r="3" spans="1:36">
+    <row r="1" spans="1:43"/>
+    <row r="2" spans="1:43"/>
+    <row r="3" spans="1:43">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -590,149 +647,177 @@
       <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" t="s">
+      <c r="Q3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" t="s">
+      <c r="X3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" t="s">
+      <c r="AA3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" t="s">
+      <c r="AC3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" t="s">
+      <c r="AD3" t="s"/>
+      <c r="AE3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="AF3" t="s">
         <v>16</v>
       </c>
-      <c r="R3" t="s">
+      <c r="AG3" t="s">
         <v>17</v>
       </c>
-      <c r="S3" t="s">
+      <c r="AH3" t="s">
         <v>18</v>
       </c>
-      <c r="T3" t="s">
+      <c r="AI3" t="s">
         <v>19</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AJ3" t="s">
         <v>20</v>
       </c>
-      <c r="V3" t="s">
+      <c r="AK3" t="s">
         <v>21</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AL3" t="s">
         <v>22</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AM3" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AN3" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AO3" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AP3" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AQ3" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" t="s">
+    </row>
+    <row r="4" spans="1:43">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AA4" t="s">
         <v>32</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AB4" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" t="s">
+    </row>
+    <row r="5" spans="1:43">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="4" spans="1:36">
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE5" t="s">
+    <row r="6" spans="1:43">
+      <c r="B6" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="B6" t="s">
-        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -741,109 +826,231 @@
         <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
         <v>48</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>49</v>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>54</v>
+    <row r="8" spans="1:43">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>54</v>
+    <row r="9" spans="1:43">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>54</v>
+    <row r="10" spans="1:43">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
